--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2572.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2572.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9531386601657463</v>
+        <v>0.6222347617149353</v>
       </c>
       <c r="B1">
-        <v>1.484263729554963</v>
+        <v>0.8970164060592651</v>
       </c>
       <c r="C1">
-        <v>3.273457935259537</v>
+        <v>5.984857559204102</v>
       </c>
       <c r="D1">
-        <v>2.1307383278748</v>
+        <v>3.385230302810669</v>
       </c>
       <c r="E1">
-        <v>0.8220143205465409</v>
+        <v>0.9762418270111084</v>
       </c>
     </row>
   </sheetData>
